--- a/9/cfrp1/9_cfrp1_SS.xlsx
+++ b/9/cfrp1/9_cfrp1_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325897CC-397F-A647-A52F-2D7ACE824690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD6F8B-3E59-E244-B8E5-732D40989B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,18 @@
     <sheet name="9_c1_th0.677" sheetId="7" r:id="rId7"/>
     <sheet name="9_c1_th0.79" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6753,7 +6764,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/9/cfrp1/9_cfrp1_SS.xlsx
+++ b/9/cfrp1/9_cfrp1_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD6F8B-3E59-E244-B8E5-732D40989B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0AADF8-4DAA-E741-B089-2905B4A22AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6764,7 +6764,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
